--- a/biology/Botanique/Koompassia/Koompassia.xlsx
+++ b/biology/Botanique/Koompassia/Koompassia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Koompassia est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Caesalpinioideae, originaire d'Asie du Sud-Est, qui compte trois espèces acceptées.
 Ce sont de grands arbres poussant dans les forêts tropicales humides en plaine, en particulier à Bornéo. Du fait de leur taille élevée (plus de 40 mètres de haut), le houppier de ces arbres émerge souvent au-dessus de la canopée, ce qui en fait des arbres émergents. 
-Koompassia excelsa, appelé aussi Tualang[1] ou Tualang à écorce argentée ou arbre à miel, est le plus grand arbre d'Asie du Sud-Est[2]  (et le troisième plus grand arbre du monde) : il peut dépasser 80 mètres de haut[3]. Cet arbre s'appelle souvent arbre à miel car les abeilles géantes Apis dorsata construisent très souvent leur grand nid en forme de disque dans ses branches les plus hautes.   
+Koompassia excelsa, appelé aussi Tualang ou Tualang à écorce argentée ou arbre à miel, est le plus grand arbre d'Asie du Sud-Est  (et le troisième plus grand arbre du monde) : il peut dépasser 80 mètres de haut. Cet arbre s'appelle souvent arbre à miel car les abeilles géantes Apis dorsata construisent très souvent leur grand nid en forme de disque dans ses branches les plus hautes.   
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (24 septembre 2018)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (24 septembre 2018) :
 Koompassia excelsa (Becc.) Taub.
 Koompassia grandiflora Kosterm.
 Koompassia malaccensis Benth.</t>
